--- a/graph_generation/results_prelim/palm/level_10/k_3.xlsx
+++ b/graph_generation/results_prelim/palm/level_10/k_3.xlsx
@@ -31,7 +31,7 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -86,29 +86,34 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node D, and then from node node D to node 11? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L
- A 0 4 0 0 0 0 1 0 5 0 5 3
- B 4 0 2 0 0 0 0 0 0 0 0 0
- C 0 2 0 2 4 4 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0
- E 0 0 4 0 0 0 0 0 0 0 0 0
- F 0 0 4 0 0 0 0 0 0 0 0 0
- G 1 0 0 0 0 0 0 5 0 0 0 0
- H 0 0 0 0 0 0 5 0 0 0 0 0
- I 5 0 0 0 0 0 0 0 0 4 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0
- K 5 0 0 0 0 0 0 0 0 0 0 1
- L 3 0 0 0 0 0 0 0 0 0 1 0
+What is the least cost path to travel first from node A to node H, and then from node node H to node Q? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q
+ A 0 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 2 0 0 5 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 1 0 0 2 5 0 0 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 2 4 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
+ Q 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0
     </t>
   </si>
   <si>
-    <t>Path from A to D: A -&gt; B -&gt; C -&gt; D
-Path from D to L: D -&gt; C -&gt; B -&gt; A -&gt; L</t>
-  </si>
-  <si>
-    <t>Path from 0 to D: 0 -&gt; D
-Path from D to 11: D -&gt; 11</t>
+    <t>Path from A to H: A -&gt; C -&gt; F -&gt; G -&gt; H
+Path from H to Q: H -&gt; I -&gt; Q</t>
+  </si>
+  <si>
+    <t>Path from A to H: A -&gt; G -&gt; H
+Path from H to Q: H -&gt; I -&gt; J -&gt; P -&gt; Q</t>
   </si>
   <si>
     <t>Wrong</t>
